--- a/medicine/Enfance/Bibliothèque_Hachette/Bibliothèque_Hachette.xlsx
+++ b/medicine/Enfance/Bibliothèque_Hachette/Bibliothèque_Hachette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_Hachette</t>
+          <t>Bibliothèque_Hachette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bibliothèque Hachette est une collection française de livres pour la jeunesse créée et éditée par les éditions Hachette de 1956 à 1959. Destinée aux adolescents, dix-huit titres ont ainsi paru.
 L'aspect de la jaquette de cette collection éphémère préfigure la collection « Bibliothèque verte » (aux éditions Hachette) cartonnée et pelliculée qui apparaît en 1959. À ce titre, la collection « Bibliothèque Hachette » peut être considérée comme une collection de transition. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_Hachette</t>
+          <t>Bibliothèque_Hachette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De format in-12 carré identique à celui des livres de la « Bibliothèque verte », les volumes sont reliés et cartonnés, et possèdent une jaquette numérotée en couleur.
 Le cartonnage est recouvert d'une toile de couleur écru ornée en son milieu d'un petit dessin figuratif résumant le thème principal du roman.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_Hachette</t>
+          <t>Bibliothèque_Hachette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Liste des titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>no 01. Le Prince de la jungle — René Guillot, illustré par Pierre Probst, 1956
 no 02. La Ballerine de Majorque, Paul-Jacques Bonzon, illustré par Paul Durand, 1956
@@ -560,7 +576,7 @@
 no 08. Une victoire sur les Andes — Bernard Pierre, illustré par Jean Reschofsky, 1957
 no 09. Jody et le faon — M. K. Rawlings, illustré par Paul Durand, 1957
 no 10. La Disparue de Montélimar — Paul-Jacques Bonzon, illustré par Philippe Daure), 1957
-no 11. Sur la piste de l'Oregon[1] — Mary Jane Carr, illustré par  François Batet, 1957[2]
+no 11. Sur la piste de l'Oregon — Mary Jane Carr, illustré par  François Batet, 1957
 no 12. Pilote d'acrobatie — Michel Détroyat, illustré par Jean Reschofsky, 1957
 no 13. Axelle — Pierre Benoît, illustré par Jacques Pecnard, 1958
 no 14. Bientôt seize ans — Betty Cavanna, illustré par Albert Chazelle, 1958
